--- a/testime/comparison/GPU.xlsx
+++ b/testime/comparison/GPU.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="49">
   <si>
     <t>Tesla K80</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -205,6 +205,18 @@
   </si>
   <si>
     <t>1230 (1380)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2235 (2520)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -213,7 +225,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="177" formatCode="&quot;(&quot;General&quot;)&quot;"/>
+    <numFmt numFmtId="176" formatCode="&quot;(&quot;General&quot;)&quot;"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -354,26 +366,26 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -655,10 +667,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:J21"/>
+  <dimension ref="B2:J22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -668,20 +680,20 @@
     <col min="3" max="4" width="10.625" style="1" customWidth="1"/>
     <col min="5" max="8" width="12.625" style="1" customWidth="1"/>
     <col min="9" max="9" width="15.5" style="1"/>
-    <col min="10" max="10" width="0" style="1" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="15.5" style="1" customWidth="1"/>
     <col min="11" max="16384" width="15.5" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="8"/>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="11"/>
-      <c r="E2" s="12" t="s">
+      <c r="D2" s="18"/>
+      <c r="E2" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="F2" s="11" t="s">
         <v>37</v>
       </c>
       <c r="G2" s="7" t="s">
@@ -695,10 +707,10 @@
       <c r="B3" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="16">
+      <c r="C3" s="15">
         <v>1440</v>
       </c>
-      <c r="D3" s="13">
+      <c r="D3" s="12">
         <v>1710</v>
       </c>
       <c r="E3" s="3">
@@ -713,7 +725,7 @@
       <c r="H3" s="4">
         <v>44075</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="J3" s="1" t="s">
         <v>34</v>
       </c>
     </row>
@@ -721,10 +733,10 @@
       <c r="B4" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="17">
+      <c r="C4" s="16">
         <v>1395</v>
       </c>
-      <c r="D4" s="14">
+      <c r="D4" s="13">
         <v>1695</v>
       </c>
       <c r="E4" s="1">
@@ -747,10 +759,10 @@
       <c r="B5" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="17">
+      <c r="C5" s="16">
         <v>2205</v>
       </c>
-      <c r="D5" s="14">
+      <c r="D5" s="13">
         <v>2505</v>
       </c>
       <c r="E5" s="1">
@@ -773,10 +785,10 @@
       <c r="B6" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="17">
+      <c r="C6" s="16">
         <v>2235</v>
       </c>
-      <c r="D6" s="14">
+      <c r="D6" s="13">
         <v>2520</v>
       </c>
       <c r="E6" s="1">
@@ -799,10 +811,10 @@
       <c r="B7" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="17">
+      <c r="C7" s="16">
         <v>562</v>
       </c>
-      <c r="D7" s="14">
+      <c r="D7" s="13">
         <v>824</v>
       </c>
       <c r="E7" s="1">
@@ -825,10 +837,10 @@
       <c r="B8" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="17">
+      <c r="C8" s="16">
         <v>585</v>
       </c>
-      <c r="D8" s="14">
+      <c r="D8" s="13">
         <v>1590</v>
       </c>
       <c r="E8" s="1">
@@ -851,10 +863,10 @@
       <c r="B9" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="C9" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="14">
+      <c r="D9" s="13">
         <v>1560</v>
       </c>
       <c r="E9" s="1">
@@ -877,10 +889,10 @@
       <c r="B10" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="17">
+      <c r="C10" s="16">
         <v>557</v>
       </c>
-      <c r="D10" s="14">
+      <c r="D10" s="13">
         <v>1178</v>
       </c>
       <c r="E10" s="1">
@@ -903,10 +915,10 @@
       <c r="B11" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="17">
+      <c r="C11" s="16">
         <v>948</v>
       </c>
-      <c r="D11" s="14">
+      <c r="D11" s="13">
         <v>1112</v>
       </c>
       <c r="E11" s="1">
@@ -929,10 +941,10 @@
       <c r="B12" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="17">
+      <c r="C12" s="16">
         <v>1033</v>
       </c>
-      <c r="D12" s="14">
+      <c r="D12" s="13">
         <v>1306</v>
       </c>
       <c r="E12" s="1">
@@ -955,10 +967,10 @@
       <c r="B13" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="17">
+      <c r="C13" s="16">
         <v>886</v>
       </c>
-      <c r="D13" s="14">
+      <c r="D13" s="13">
         <v>1114</v>
       </c>
       <c r="E13" s="1">
@@ -981,10 +993,10 @@
       <c r="B14" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="17">
+      <c r="C14" s="16">
         <v>1025</v>
       </c>
-      <c r="D14" s="14">
+      <c r="D14" s="13">
         <v>1493</v>
       </c>
       <c r="E14" s="1">
@@ -1007,10 +1019,10 @@
       <c r="B15" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="17">
+      <c r="C15" s="16">
         <v>1303</v>
       </c>
-      <c r="D15" s="14">
+      <c r="D15" s="13">
         <v>1531</v>
       </c>
       <c r="E15" s="1">
@@ -1033,10 +1045,10 @@
       <c r="B16" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="C16" s="17">
+      <c r="C16" s="16">
         <v>1246</v>
       </c>
-      <c r="D16" s="14">
+      <c r="D16" s="13">
         <v>1380</v>
       </c>
       <c r="E16" s="1" t="s">
@@ -1059,10 +1071,10 @@
       <c r="B17" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C17" s="17">
+      <c r="C17" s="16">
         <v>1246</v>
       </c>
-      <c r="D17" s="14">
+      <c r="D17" s="13">
         <v>1380</v>
       </c>
       <c r="E17" s="1">
@@ -1085,10 +1097,10 @@
       <c r="B18" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="C18" s="17">
+      <c r="C18" s="16">
         <v>1230</v>
       </c>
-      <c r="D18" s="14">
+      <c r="D18" s="13">
         <v>1380</v>
       </c>
       <c r="E18" s="1">
@@ -1111,10 +1123,10 @@
       <c r="B19" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C19" s="17">
+      <c r="C19" s="16">
         <v>1110</v>
       </c>
-      <c r="D19" s="14" t="s">
+      <c r="D19" s="13" t="s">
         <v>11</v>
       </c>
       <c r="E19" s="1">
@@ -1137,10 +1149,10 @@
       <c r="B20" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C20" s="17">
+      <c r="C20" s="16">
         <v>1065</v>
       </c>
-      <c r="D20" s="14">
+      <c r="D20" s="13">
         <v>1410</v>
       </c>
       <c r="E20" s="1">
@@ -1160,29 +1172,55 @@
       </c>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B21" s="10" t="s">
+      <c r="B21" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C21" s="18">
+      <c r="C21" s="16">
         <v>1095</v>
       </c>
-      <c r="D21" s="15">
+      <c r="D21" s="13">
         <v>1755</v>
       </c>
-      <c r="E21" s="5">
+      <c r="E21" s="1">
         <v>51.22</v>
       </c>
-      <c r="F21" s="5">
+      <c r="F21" s="1">
         <v>2039</v>
       </c>
-      <c r="G21" s="5" t="s">
+      <c r="G21" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H21" s="6">
+      <c r="H21" s="2">
         <v>45006</v>
       </c>
-      <c r="J21" s="5" t="s">
+      <c r="J21" s="1" t="s">
         <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B22" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C22" s="17">
+        <v>2235</v>
+      </c>
+      <c r="D22" s="14">
+        <v>2520</v>
+      </c>
+      <c r="E22" s="5">
+        <v>59.35</v>
+      </c>
+      <c r="F22" s="5">
+        <v>864</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="H22" s="6">
+        <v>45246</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -1190,50 +1228,8 @@
     <mergeCell ref="C2:D2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="G18:G20 G3:G15">
-    <cfRule type="dataBar" priority="16">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF63C384"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{A58CA012-F620-4580-9C7C-338E7243CE27}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F18:F21 F3:F15">
-    <cfRule type="dataBar" priority="14">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{3E981AC3-7ECF-493C-933E-56417343E2E3}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E19:E21 E3:E15">
-    <cfRule type="dataBar" priority="13">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{882A51FA-2761-451C-9712-65F7FF0DEE8A}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="G16">
-    <cfRule type="dataBar" priority="12">
+    <cfRule type="dataBar" priority="15">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -1247,7 +1243,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F16">
-    <cfRule type="dataBar" priority="11">
+    <cfRule type="dataBar" priority="14">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -1261,7 +1257,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E16">
-    <cfRule type="dataBar" priority="10">
+    <cfRule type="dataBar" priority="13">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -1275,7 +1271,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G17">
-    <cfRule type="dataBar" priority="9">
+    <cfRule type="dataBar" priority="12">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -1289,7 +1285,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F17">
-    <cfRule type="dataBar" priority="8">
+    <cfRule type="dataBar" priority="11">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -1303,7 +1299,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E17">
-    <cfRule type="dataBar" priority="7">
+    <cfRule type="dataBar" priority="10">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -1317,7 +1313,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E18">
-    <cfRule type="dataBar" priority="6">
+    <cfRule type="dataBar" priority="9">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -1330,8 +1326,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E3:E21">
-    <cfRule type="dataBar" priority="5">
+  <conditionalFormatting sqref="E3:E22">
+    <cfRule type="dataBar" priority="8">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -1344,8 +1340,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F3:F21">
-    <cfRule type="dataBar" priority="4">
+  <conditionalFormatting sqref="F3:F22">
+    <cfRule type="dataBar" priority="7">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -1358,12 +1354,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G3:G21">
-    <cfRule type="dataBar" priority="3">
+  <conditionalFormatting sqref="G3:G22">
+    <cfRule type="dataBar" priority="2">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
-        <color rgb="FF63C384"/>
+        <color rgb="FFFF555A"/>
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
@@ -1372,8 +1368,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C3:C21">
-    <cfRule type="dataBar" priority="2">
+  <conditionalFormatting sqref="C3:C22">
+    <cfRule type="dataBar" priority="5">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -1386,7 +1382,59 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D3:D21">
+  <conditionalFormatting sqref="G18:G20 G3:G15 G22">
+    <cfRule type="dataBar" priority="20">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{A58CA012-F620-4580-9C7C-338E7243CE27}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F18:F22 F3:F15">
+    <cfRule type="dataBar" priority="23">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{3E981AC3-7ECF-493C-933E-56417343E2E3}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E19:E22 E3:E15">
+    <cfRule type="dataBar" priority="26">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{882A51FA-2761-451C-9712-65F7FF0DEE8A}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H3:H22">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3:G15">
     <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="min"/>
@@ -1395,7 +1443,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{A4EE4025-648B-4256-B46C-14C2181E300B}</x14:id>
+          <x14:id>{A3FFC91F-69EE-481A-B9CF-48AB7FAD5EFD}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -1405,39 +1453,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{A58CA012-F620-4580-9C7C-338E7243CE27}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>G18:G20 G3:G15</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{3E981AC3-7ECF-493C-933E-56417343E2E3}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>F18:F21 F3:F15</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{882A51FA-2761-451C-9712-65F7FF0DEE8A}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>E19:E21 E3:E15</xm:sqref>
-        </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{852DCBB6-56AE-4737-ADF2-918C59E8BBDC}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
@@ -1524,7 +1539,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>E3:E21</xm:sqref>
+          <xm:sqref>E3:E22</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{7EB61415-2D08-4FB6-96E3-35D1260859BF}">
@@ -1535,7 +1550,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>F3:F21</xm:sqref>
+          <xm:sqref>F3:F22</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{FD72B943-0037-43C9-A8C9-9AD02612BB28}">
@@ -1546,7 +1561,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>G3:G21</xm:sqref>
+          <xm:sqref>G3:G22</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{55457F8A-0DE3-491F-977B-58650DD9E3B1}">
@@ -1557,10 +1572,10 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>C3:C21</xm:sqref>
+          <xm:sqref>C3:C22</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{A4EE4025-648B-4256-B46C-14C2181E300B}">
+          <x14:cfRule type="dataBar" id="{A58CA012-F620-4580-9C7C-338E7243CE27}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -1568,7 +1583,40 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D3:D21</xm:sqref>
+          <xm:sqref>G18:G20 G3:G15 G22</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{3E981AC3-7ECF-493C-933E-56417343E2E3}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>F18:F22 F3:F15</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{882A51FA-2761-451C-9712-65F7FF0DEE8A}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>E19:E22 E3:E15</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{A3FFC91F-69EE-481A-B9CF-48AB7FAD5EFD}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G3:G15</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
